--- a/QuantLibXL/StandaloneExamples/Analytics/YieldCurveBootstrapping.xlsx
+++ b/QuantLibXL/StandaloneExamples/Analytics/YieldCurveBootstrapping.xlsx
@@ -33,6 +33,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>id of the object to be created. If missing a unique id will be automatically assigned.</t>
         </r>
@@ -45,6 +46,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>index tenor (e.g. 3W for three weeks, 6M for six months, 1Y for one year)</t>
         </r>
@@ -57,6 +59,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>forecasting yield term structure</t>
         </r>
@@ -69,6 +72,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>TRUE if the object must be permanent (i.e. resistant to garbage collection). Default is FALSE.</t>
         </r>
@@ -81,6 +85,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dependancy tracking trigger</t>
         </r>
@@ -103,6 +108,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>max number of IMM (March, June, September, December) Futures to be included</t>
         </r>
@@ -115,6 +121,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>max number of Serial (January, February, April, May, July, August, October, November) Futures to be included</t>
         </r>
@@ -127,6 +134,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>discard the front Futures the given number of days before its expiry (e.g zero implies the use of the front Futures during its expiry day)</t>
         </r>
@@ -139,6 +147,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Depo inclusion criteria. If missing, default=AllDepos is used</t>
         </r>
@@ -151,6 +160,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dependancy tracking trigger</t>
         </r>
@@ -163,6 +173,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>id of the object to be created. If missing a unique id will be automatically assigned.</t>
         </r>
@@ -175,6 +186,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>number of days to advance from EvaluationDate (usually zero or two): it fixes the date at which the discount factor = 1.0. If omitted, default = 0 is used.</t>
         </r>
@@ -187,6 +199,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>holiday calendar (e.g. TARGET) to advance from global EvaluationDate</t>
         </r>
@@ -199,6 +212,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>DayCounter ID</t>
         </r>
@@ -211,6 +225,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Discount, ZeroRate, or ForwardRate. If omitted, default = Discount is used.</t>
         </r>
@@ -223,6 +238,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>BackwardFlat, ForwardFlat, Linear, LogLinear, CubicSpline, or LogCubic. If omitted, default = LogLinear is used.</t>
         </r>
@@ -235,6 +251,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Bootstrapping accuracy.</t>
         </r>
@@ -247,6 +264,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>TRUE if the object must be permanent (i.e. resistant to garbage collection). Default is FALSE.</t>
         </r>
@@ -259,6 +277,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Dependancy tracking trigger</t>
         </r>
@@ -489,11 +508,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="172" formatCode="0.0000%"/>
-    <numFmt numFmtId="174" formatCode="0.0000"/>
-    <numFmt numFmtId="178" formatCode="ddd\,\ d\-mmm\-yyyy"/>
-    <numFmt numFmtId="183" formatCode="0.00000000"/>
-    <numFmt numFmtId="184" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="ddd\,\ d\-mmm\-yyyy"/>
+    <numFmt numFmtId="167" formatCode="0.00000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -503,11 +522,13 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -527,7 +548,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,6 +573,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -827,7 +854,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,7 +872,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -863,7 +890,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -875,13 +902,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -890,7 +917,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -902,7 +929,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -939,18 +966,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -963,8 +978,8 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -977,22 +992,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1313,7 +1340,7 @@
       </c>
       <c r="B1" s="38" t="str">
         <f>_xll.qlEuribor(B3,B4,B5,B6,B7)</f>
-        <v>obj_00001#0000</v>
+        <v>obj_00000#0007</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -1378,7 +1405,7 @@
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="4" bestFit="1"/>
     <col min="5" max="5" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
@@ -1783,8 +1810,8 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="str">
-        <f>_xll.qlFuturesRateHelper2(C12,D12,E12,F12,G12,H12,I12,J12,K12)</f>
-        <v>FUT1#0000</v>
+        <f>_xll.qlFuturesRateHelper2(C12,D12,"IMM",E12,F12,G12,H12,I12,J12,K12)</f>
+        <v>FUT1#0013</v>
       </c>
       <c r="B12" s="23" t="str">
         <f>_xll.ohRangeRetrieveError(A12)</f>
@@ -1796,9 +1823,9 @@
       <c r="D12" s="24">
         <v>96</v>
       </c>
-      <c r="E12" s="46" t="str">
+      <c r="E12" s="70" t="str">
         <f t="array" ref="E12:E19">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate()+3,I12:I19)</f>
-        <v>M4</v>
+        <v>U5</v>
       </c>
       <c r="F12" s="9">
         <v>3</v>
@@ -1822,8 +1849,8 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="str">
-        <f>_xll.qlFuturesRateHelper2(C13,D13,E13,F13,G13,H13,I13,J13,K13)</f>
-        <v>FUT2#0000</v>
+        <f>_xll.qlFuturesRateHelper2(C13,D13,"IMM",E13,F13,G13,H13,I13,J13,K13)</f>
+        <v>FUT2#0001</v>
       </c>
       <c r="B13" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(A13)</f>
@@ -1835,8 +1862,8 @@
       <c r="D13" s="26">
         <v>96</v>
       </c>
-      <c r="E13" s="47" t="str">
-        <v>U4</v>
+      <c r="E13" s="71" t="str">
+        <v>Z5</v>
       </c>
       <c r="F13" s="15">
         <v>3</v>
@@ -1860,8 +1887,8 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="str">
-        <f>_xll.qlFuturesRateHelper2(C14,D14,E14,F14,G14,H14,I14,J14,K14)</f>
-        <v>FUT3#0000</v>
+        <f>_xll.qlFuturesRateHelper2(C14,D14,"IMM",E14,F14,G14,H14,I14,J14,K14)</f>
+        <v>FUT3#0001</v>
       </c>
       <c r="B14" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(A14)</f>
@@ -1873,8 +1900,8 @@
       <c r="D14" s="26">
         <v>96</v>
       </c>
-      <c r="E14" s="47" t="str">
-        <v>Z4</v>
+      <c r="E14" s="71" t="str">
+        <v>H6</v>
       </c>
       <c r="F14" s="15">
         <v>3</v>
@@ -1898,8 +1925,8 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="str">
-        <f>_xll.qlFuturesRateHelper2(C15,D15,E15,F15,G15,H15,I15,J15,K15)</f>
-        <v>FUT4#0000</v>
+        <f>_xll.qlFuturesRateHelper2(C15,D15,"IMM",E15,F15,G15,H15,I15,J15,K15)</f>
+        <v>FUT4#0001</v>
       </c>
       <c r="B15" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(A15)</f>
@@ -1911,8 +1938,8 @@
       <c r="D15" s="26">
         <v>96</v>
       </c>
-      <c r="E15" s="47" t="str">
-        <v>H5</v>
+      <c r="E15" s="71" t="str">
+        <v>M6</v>
       </c>
       <c r="F15" s="15">
         <v>3</v>
@@ -1936,8 +1963,8 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="str">
-        <f>_xll.qlFuturesRateHelper2(C16,D16,E16,F16,G16,H16,I16,J16,K16)</f>
-        <v>FUT5#0000</v>
+        <f>_xll.qlFuturesRateHelper2(C16,D16,"IMM",E16,F16,G16,H16,I16,J16,K16)</f>
+        <v>FUT5#0001</v>
       </c>
       <c r="B16" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(A16)</f>
@@ -1949,8 +1976,8 @@
       <c r="D16" s="26">
         <v>96</v>
       </c>
-      <c r="E16" s="47" t="str">
-        <v>M5</v>
+      <c r="E16" s="71" t="str">
+        <v>U6</v>
       </c>
       <c r="F16" s="15">
         <v>3</v>
@@ -1974,8 +2001,8 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="str">
-        <f>_xll.qlFuturesRateHelper2(C17,D17,E17,F17,G17,H17,I17,J17,K17)</f>
-        <v>FUT6#0000</v>
+        <f>_xll.qlFuturesRateHelper2(C17,D17,"IMM",E17,F17,G17,H17,I17,J17,K17)</f>
+        <v>FUT6#0001</v>
       </c>
       <c r="B17" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(A17)</f>
@@ -1987,8 +2014,8 @@
       <c r="D17" s="26">
         <v>96</v>
       </c>
-      <c r="E17" s="47" t="str">
-        <v>U5</v>
+      <c r="E17" s="71" t="str">
+        <v>Z6</v>
       </c>
       <c r="F17" s="15">
         <v>3</v>
@@ -2012,8 +2039,8 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="str">
-        <f>_xll.qlFuturesRateHelper2(C18,D18,E18,F18,G18,H18,I18,J18,K18)</f>
-        <v>FUT7#0000</v>
+        <f>_xll.qlFuturesRateHelper2(C18,D18,"IMM",E18,F18,G18,H18,I18,J18,K18)</f>
+        <v>FUT7#0001</v>
       </c>
       <c r="B18" s="25" t="str">
         <f>_xll.ohRangeRetrieveError(A18)</f>
@@ -2025,8 +2052,8 @@
       <c r="D18" s="26">
         <v>96</v>
       </c>
-      <c r="E18" s="47" t="str">
-        <v>Z5</v>
+      <c r="E18" s="71" t="str">
+        <v>H7</v>
       </c>
       <c r="F18" s="15">
         <v>3</v>
@@ -2050,8 +2077,8 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="str">
-        <f>_xll.qlFuturesRateHelper2(C19,D19,E19,F19,G19,H19,I19,J19,K19)</f>
-        <v>FUT8#0000</v>
+        <f>_xll.qlFuturesRateHelper2(C19,D19,"IMM",E19,F19,G19,H19,I19,J19,K19)</f>
+        <v>FUT8#0001</v>
       </c>
       <c r="B19" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(A19)</f>
@@ -2063,8 +2090,8 @@
       <c r="D19" s="29">
         <v>96</v>
       </c>
-      <c r="E19" s="48" t="str">
-        <v>H6</v>
+      <c r="E19" s="72" t="str">
+        <v>M7</v>
       </c>
       <c r="F19" s="21">
         <v>3</v>
@@ -2088,8 +2115,8 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="str">
-        <f>_xll.qlSwapRateHelper2(C20,D20,E20,F20,G20,H20,I20,J20,K20,L20)</f>
-        <v>Swap3Y#0000</v>
+        <f>_xll.qlSwapRateHelper2(C20,D20,2,E20,F20,G20,H20,I20,J20,K20,L20)</f>
+        <v>Swap3Y#0020</v>
       </c>
       <c r="B20" s="6" t="str">
         <f>_xll.ohRangeRetrieveError(A20)</f>
@@ -2102,7 +2129,7 @@
       <c r="D20" s="8">
         <v>0.04</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="70" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="9" t="s">
@@ -2119,7 +2146,7 @@
       </c>
       <c r="J20" s="9" t="str">
         <f t="shared" ref="J20:J31" si="1">IborIndex6M</f>
-        <v>obj_00001#0000</v>
+        <v>obj_00000#0007</v>
       </c>
       <c r="K20" s="8">
         <v>0</v>
@@ -2130,8 +2157,8 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(C21,D21,E21,F21,G21,H21,I21,J21,K21,L21)</f>
-        <v>Swap4Y#0000</v>
+        <f>_xll.qlSwapRateHelper2(C21,D21,2,E21,F21,G21,H21,I21,J21,K21,L21)</f>
+        <v>Swap4Y#0007</v>
       </c>
       <c r="B21" s="12" t="str">
         <f>_xll.ohRangeRetrieveError(A21)</f>
@@ -2144,7 +2171,7 @@
       <c r="D21" s="14">
         <v>0.04</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="71" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="15" t="s">
@@ -2161,7 +2188,7 @@
       </c>
       <c r="J21" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00001#0000</v>
+        <v>obj_00000#0007</v>
       </c>
       <c r="K21" s="14">
         <v>0</v>
@@ -2172,8 +2199,8 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(C22,D22,E22,F22,G22,H22,I22,J22,K22,L22)</f>
-        <v>Swap5Y#0000</v>
+        <f>_xll.qlSwapRateHelper2(C22,D22,2,E22,F22,G22,H22,I22,J22,K22,L22)</f>
+        <v>Swap5Y#0007</v>
       </c>
       <c r="B22" s="12" t="str">
         <f>_xll.ohRangeRetrieveError(A22)</f>
@@ -2186,7 +2213,7 @@
       <c r="D22" s="14">
         <v>0.04</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="71" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="15" t="s">
@@ -2203,7 +2230,7 @@
       </c>
       <c r="J22" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00001#0000</v>
+        <v>obj_00000#0007</v>
       </c>
       <c r="K22" s="14">
         <v>0</v>
@@ -2214,8 +2241,8 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(C23,D23,E23,F23,G23,H23,I23,J23,K23,L23)</f>
-        <v>Swap6Y#0000</v>
+        <f>_xll.qlSwapRateHelper2(C23,D23,2,E23,F23,G23,H23,I23,J23,K23,L23)</f>
+        <v>Swap6Y#0007</v>
       </c>
       <c r="B23" s="12" t="str">
         <f>_xll.ohRangeRetrieveError(A23)</f>
@@ -2228,7 +2255,7 @@
       <c r="D23" s="14">
         <v>0.04</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="71" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="15" t="s">
@@ -2245,7 +2272,7 @@
       </c>
       <c r="J23" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00001#0000</v>
+        <v>obj_00000#0007</v>
       </c>
       <c r="K23" s="14">
         <v>0</v>
@@ -2256,8 +2283,8 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(C24,D24,E24,F24,G24,H24,I24,J24,K24,L24)</f>
-        <v>Swap7Y#0000</v>
+        <f>_xll.qlSwapRateHelper2(C24,D24,2,E24,F24,G24,H24,I24,J24,K24,L24)</f>
+        <v>Swap7Y#0007</v>
       </c>
       <c r="B24" s="12" t="str">
         <f>_xll.ohRangeRetrieveError(A24)</f>
@@ -2270,7 +2297,7 @@
       <c r="D24" s="14">
         <v>0.04</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="71" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="15" t="s">
@@ -2287,7 +2314,7 @@
       </c>
       <c r="J24" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00001#0000</v>
+        <v>obj_00000#0007</v>
       </c>
       <c r="K24" s="14">
         <v>0</v>
@@ -2298,8 +2325,8 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(C25,D25,E25,F25,G25,H25,I25,J25,K25,L25)</f>
-        <v>Swap8Y#0000</v>
+        <f>_xll.qlSwapRateHelper2(C25,D25,2,E25,F25,G25,H25,I25,J25,K25,L25)</f>
+        <v>Swap8Y#0007</v>
       </c>
       <c r="B25" s="12" t="str">
         <f>_xll.ohRangeRetrieveError(A25)</f>
@@ -2312,7 +2339,7 @@
       <c r="D25" s="14">
         <v>0.04</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="71" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="15" t="s">
@@ -2329,7 +2356,7 @@
       </c>
       <c r="J25" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00001#0000</v>
+        <v>obj_00000#0007</v>
       </c>
       <c r="K25" s="14">
         <v>0</v>
@@ -2340,8 +2367,8 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(C26,D26,E26,F26,G26,H26,I26,J26,K26,L26)</f>
-        <v>Swap9Y#0000</v>
+        <f>_xll.qlSwapRateHelper2(C26,D26,2,E26,F26,G26,H26,I26,J26,K26,L26)</f>
+        <v>Swap9Y#0007</v>
       </c>
       <c r="B26" s="12" t="str">
         <f>_xll.ohRangeRetrieveError(A26)</f>
@@ -2354,7 +2381,7 @@
       <c r="D26" s="14">
         <v>0.04</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="71" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="15" t="s">
@@ -2371,7 +2398,7 @@
       </c>
       <c r="J26" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00001#0000</v>
+        <v>obj_00000#0007</v>
       </c>
       <c r="K26" s="14">
         <v>0</v>
@@ -2382,8 +2409,8 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(C27,D27,E27,F27,G27,H27,I27,J27,K27,L27)</f>
-        <v>Swap10Y#0000</v>
+        <f>_xll.qlSwapRateHelper2(C27,D27,2,E27,F27,G27,H27,I27,J27,K27,L27)</f>
+        <v>Swap10Y#0007</v>
       </c>
       <c r="B27" s="12" t="str">
         <f>_xll.ohRangeRetrieveError(A27)</f>
@@ -2396,7 +2423,7 @@
       <c r="D27" s="14">
         <v>0.04</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="71" t="s">
         <v>23</v>
       </c>
       <c r="F27" s="15" t="s">
@@ -2413,7 +2440,7 @@
       </c>
       <c r="J27" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00001#0000</v>
+        <v>obj_00000#0007</v>
       </c>
       <c r="K27" s="14">
         <v>0</v>
@@ -2424,8 +2451,8 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(C28,D28,E28,F28,G28,H28,I28,J28,K28,L28)</f>
-        <v>Swap15Y#0000</v>
+        <f>_xll.qlSwapRateHelper2(C28,D28,2,E28,F28,G28,H28,I28,J28,K28,L28)</f>
+        <v>Swap15Y#0007</v>
       </c>
       <c r="B28" s="12" t="str">
         <f>_xll.ohRangeRetrieveError(A28)</f>
@@ -2438,7 +2465,7 @@
       <c r="D28" s="14">
         <v>0.04</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="71" t="s">
         <v>28</v>
       </c>
       <c r="F28" s="15" t="s">
@@ -2455,7 +2482,7 @@
       </c>
       <c r="J28" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00001#0000</v>
+        <v>obj_00000#0007</v>
       </c>
       <c r="K28" s="14">
         <v>0</v>
@@ -2466,8 +2493,8 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(C29,D29,E29,F29,G29,H29,I29,J29,K29,L29)</f>
-        <v>Swap20Y#0000</v>
+        <f>_xll.qlSwapRateHelper2(C29,D29,2,E29,F29,G29,H29,I29,J29,K29,L29)</f>
+        <v>Swap20Y#0007</v>
       </c>
       <c r="B29" s="12" t="str">
         <f>_xll.ohRangeRetrieveError(A29)</f>
@@ -2480,7 +2507,7 @@
       <c r="D29" s="14">
         <v>0.04</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="71" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="15" t="s">
@@ -2497,7 +2524,7 @@
       </c>
       <c r="J29" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00001#0000</v>
+        <v>obj_00000#0007</v>
       </c>
       <c r="K29" s="14">
         <v>0</v>
@@ -2508,8 +2535,8 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="str">
-        <f>_xll.qlSwapRateHelper2(C30,D30,E30,F30,G30,H30,I30,J30,K30,L30)</f>
-        <v>Swap25Y#0000</v>
+        <f>_xll.qlSwapRateHelper2(C30,D30,2,E30,F30,G30,H30,I30,J30,K30,L30)</f>
+        <v>Swap25Y#0007</v>
       </c>
       <c r="B30" s="12" t="str">
         <f>_xll.ohRangeRetrieveError(A30)</f>
@@ -2522,7 +2549,7 @@
       <c r="D30" s="14">
         <v>0.04</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="71" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="15" t="s">
@@ -2539,7 +2566,7 @@
       </c>
       <c r="J30" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00001#0000</v>
+        <v>obj_00000#0007</v>
       </c>
       <c r="K30" s="14">
         <v>0</v>
@@ -2550,8 +2577,8 @@
     </row>
     <row r="31" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="str">
-        <f>_xll.qlSwapRateHelper2(C31,D31,E31,F31,G31,H31,I31,J31,K31,L31)</f>
-        <v>Swap30Y#0000</v>
+        <f>_xll.qlSwapRateHelper2(C31,D31,2,E31,F31,G31,H31,I31,J31,K31,L31)</f>
+        <v>Swap30Y#0007</v>
       </c>
       <c r="B31" s="31" t="str">
         <f>_xll.ohRangeRetrieveError(A31)</f>
@@ -2564,7 +2591,7 @@
       <c r="D31" s="33">
         <v>0.04</v>
       </c>
-      <c r="E31" s="49" t="s">
+      <c r="E31" s="73" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="35" t="s">
@@ -2581,7 +2608,7 @@
       </c>
       <c r="J31" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>obj_00001#0000</v>
+        <v>obj_00000#0007</v>
       </c>
       <c r="K31" s="33">
         <v>0</v>
@@ -2620,16 +2647,18 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="33.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="3.83203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="20.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" style="4"/>
@@ -2638,94 +2667,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="47" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="47" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="49">
         <v>8</v>
       </c>
-      <c r="H2" s="54">
+      <c r="H2" s="50">
         <f t="array" ref="H2:H32">_xll.qlPiecewiseYieldCurveDates(F8)</f>
-        <v>41795</v>
-      </c>
-      <c r="I2" s="55">
+        <v>42235</v>
+      </c>
+      <c r="I2" s="51">
         <f t="array" ref="I2:I32">_xll.qlPiecewiseYieldCurveData(F8)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="str">
+      <c r="A3" s="52" t="str">
         <f t="array" ref="A3:A32">RateHelpers!A2:A31</f>
         <v>DepoON#0000</v>
       </c>
       <c r="B3" s="27">
         <v>1</v>
       </c>
-      <c r="C3" s="57" t="str">
+      <c r="C3" s="53" t="str">
         <f t="array" ref="C3:C32">_xll.qlRateHelperSelection(A3:A32,B3:B32,F2,F3,F4,F5,F6)</f>
         <v>Depo2M</v>
       </c>
       <c r="E3" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="54">
         <v>0</v>
       </c>
-      <c r="H3" s="54">
-        <v>41856</v>
-      </c>
-      <c r="I3" s="55">
+      <c r="H3" s="50">
+        <v>42296</v>
+      </c>
+      <c r="I3" s="51">
         <v>0.99326785123033334</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="str">
+      <c r="A4" s="52" t="str">
         <v>DepoTN#0000</v>
       </c>
       <c r="B4" s="27">
         <v>1</v>
       </c>
-      <c r="C4" s="57" t="str">
+      <c r="C4" s="53" t="str">
         <v>FUT1</v>
       </c>
       <c r="E4" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="54">
         <v>3</v>
       </c>
-      <c r="H4" s="54">
-        <v>41900</v>
-      </c>
-      <c r="I4" s="55">
-        <v>0.98845723478535241</v>
+      <c r="H4" s="50">
+        <v>42354</v>
+      </c>
+      <c r="I4" s="51">
+        <v>0.98692527552399723</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="str">
+      <c r="A5" s="52" t="str">
         <v>DepoSN#0000</v>
       </c>
       <c r="B5" s="27">
         <v>1</v>
       </c>
-      <c r="C5" s="57" t="str">
+      <c r="C5" s="53" t="str">
         <v>FUT2</v>
       </c>
       <c r="E5" s="42" t="s">
@@ -2734,21 +2763,21 @@
       <c r="F5" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="54">
-        <v>41990</v>
-      </c>
-      <c r="I5" s="55">
-        <v>0.97867085801963094</v>
+      <c r="H5" s="50">
+        <v>42445</v>
+      </c>
+      <c r="I5" s="51">
+        <v>0.9770462523062341</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="str">
+      <c r="A6" s="52" t="str">
         <v>Depo1W#0000</v>
       </c>
       <c r="B6" s="27">
         <v>1</v>
       </c>
-      <c r="C6" s="57" t="str">
+      <c r="C6" s="53" t="str">
         <v>FUT3</v>
       </c>
       <c r="E6" s="39" t="s">
@@ -2757,38 +2786,38 @@
       <c r="F6" s="44">
         <v>30</v>
       </c>
-      <c r="H6" s="54">
-        <v>42080</v>
-      </c>
-      <c r="I6" s="55">
-        <v>0.9689810475442322</v>
+      <c r="H6" s="50">
+        <v>42537</v>
+      </c>
+      <c r="I6" s="51">
+        <v>0.96715973061549787</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="str">
+      <c r="A7" s="52" t="str">
         <v>Depo2W#0000</v>
       </c>
       <c r="B7" s="27">
         <v>1</v>
       </c>
-      <c r="C7" s="57" t="str">
+      <c r="C7" s="53" t="str">
         <v>FUT4</v>
       </c>
-      <c r="H7" s="54">
-        <v>42173</v>
-      </c>
-      <c r="I7" s="55">
-        <v>0.95907010770031853</v>
+      <c r="H7" s="50">
+        <v>42628</v>
+      </c>
+      <c r="I7" s="51">
+        <v>0.95747908915853353</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="56" t="str">
+      <c r="A8" s="52" t="str">
         <v>Depo3W#0000</v>
       </c>
       <c r="B8" s="27">
         <v>1</v>
       </c>
-      <c r="C8" s="57" t="str">
+      <c r="C8" s="53" t="str">
         <v>FUT5</v>
       </c>
       <c r="E8" s="37" t="s">
@@ -2798,21 +2827,21 @@
         <f>_xll.qlPiecewiseYieldCurve(F10,F11,F12,_xll.ohPack(C3:C32),F13,,,F16,F14,F15,F17,F18)</f>
         <v>obj_0001f#0000</v>
       </c>
-      <c r="H8" s="54">
-        <v>42264</v>
-      </c>
-      <c r="I8" s="55">
-        <v>0.9494704381203819</v>
+      <c r="H8" s="50">
+        <v>42725</v>
+      </c>
+      <c r="I8" s="51">
+        <v>0.94726627130948626</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="str">
+      <c r="A9" s="52" t="str">
         <v>Depo1M#0000</v>
       </c>
       <c r="B9" s="27">
         <v>1</v>
       </c>
-      <c r="C9" s="57" t="str">
+      <c r="C9" s="53" t="str">
         <v>FUT6</v>
       </c>
       <c r="E9" s="39" t="s">
@@ -2822,42 +2851,42 @@
         <f>_xll.ohRangeRetrieveError(F8)</f>
         <v/>
       </c>
-      <c r="H9" s="54">
-        <v>42354</v>
-      </c>
-      <c r="I9" s="55">
-        <v>0.94007025032545566</v>
+      <c r="H9" s="50">
+        <v>42815</v>
+      </c>
+      <c r="I9" s="51">
+        <v>0.9378873973361348</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="56" t="str">
+      <c r="A10" s="52" t="str">
         <v>Depo2M#0000</v>
       </c>
       <c r="B10" s="27">
         <v>1</v>
       </c>
-      <c r="C10" s="57" t="str">
+      <c r="C10" s="53" t="str">
         <v>FUT7</v>
       </c>
       <c r="E10" s="37" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="41"/>
-      <c r="H10" s="54">
-        <v>42445</v>
-      </c>
-      <c r="I10" s="55">
-        <v>0.93066024121980462</v>
+      <c r="H10" s="50">
+        <v>42901</v>
+      </c>
+      <c r="I10" s="51">
+        <v>0.92901317725104904</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="str">
+      <c r="A11" s="52" t="str">
         <v>Depo3M#0000</v>
       </c>
       <c r="B11" s="27">
         <v>1</v>
       </c>
-      <c r="C11" s="57" t="str">
+      <c r="C11" s="53" t="str">
         <v>FUT8</v>
       </c>
       <c r="E11" s="42" t="s">
@@ -2866,21 +2895,21 @@
       <c r="F11" s="43">
         <v>2</v>
       </c>
-      <c r="H11" s="54">
-        <v>42537</v>
-      </c>
-      <c r="I11" s="55">
-        <v>0.92124308963701296</v>
+      <c r="H11" s="50">
+        <v>42999</v>
+      </c>
+      <c r="I11" s="51">
+        <v>0.91900293137477351</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="str">
+      <c r="A12" s="52" t="str">
         <v>Depo6M#0000</v>
       </c>
       <c r="B12" s="27">
         <v>4</v>
       </c>
-      <c r="C12" s="57" t="str">
+      <c r="C12" s="53" t="str">
         <v>Swap3Y</v>
       </c>
       <c r="E12" s="42" t="s">
@@ -2889,42 +2918,42 @@
       <c r="F12" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="54">
-        <v>42891</v>
-      </c>
-      <c r="I12" s="55">
-        <v>0.88912294221889032</v>
+      <c r="H12" s="50">
+        <v>43332</v>
+      </c>
+      <c r="I12" s="51">
+        <v>0.88903259630745679</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="56" t="str">
-        <v>FUT1#0000</v>
+      <c r="A13" s="52" t="str">
+        <v>FUT1#0013</v>
       </c>
       <c r="B13" s="27">
         <v>4</v>
       </c>
-      <c r="C13" s="57" t="str">
+      <c r="C13" s="53" t="str">
         <v>Swap4Y</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="43"/>
-      <c r="H13" s="54">
-        <v>43256</v>
-      </c>
-      <c r="I13" s="55">
-        <v>0.85492590597970242</v>
+      <c r="H13" s="50">
+        <v>43696</v>
+      </c>
+      <c r="I13" s="51">
+        <v>0.85493037362614732</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="56" t="str">
-        <v>FUT2#0000</v>
+      <c r="A14" s="52" t="str">
+        <v>FUT2#0001</v>
       </c>
       <c r="B14" s="27">
         <v>4</v>
       </c>
-      <c r="C14" s="57" t="str">
+      <c r="C14" s="53" t="str">
         <v>Swap5Y</v>
       </c>
       <c r="E14" s="42" t="s">
@@ -2933,21 +2962,21 @@
       <c r="F14" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="54">
-        <v>43621</v>
-      </c>
-      <c r="I14" s="55">
-        <v>0.82204414036509832</v>
+      <c r="H14" s="50">
+        <v>44062</v>
+      </c>
+      <c r="I14" s="51">
+        <v>0.8220484361789876</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="str">
-        <v>FUT3#0000</v>
+      <c r="A15" s="52" t="str">
+        <v>FUT3#0001</v>
       </c>
       <c r="B15" s="27">
         <v>4</v>
       </c>
-      <c r="C15" s="57" t="str">
+      <c r="C15" s="53" t="str">
         <v>Swap6Y</v>
       </c>
       <c r="E15" s="42" t="s">
@@ -2956,367 +2985,367 @@
       <c r="F15" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="54">
-        <v>43987</v>
-      </c>
-      <c r="I15" s="55">
-        <v>0.79042705804336377</v>
+      <c r="H15" s="50">
+        <v>44427</v>
+      </c>
+      <c r="I15" s="51">
+        <v>0.79043118863364203</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="str">
-        <v>FUT4#0000</v>
+      <c r="A16" s="52" t="str">
+        <v>FUT4#0001</v>
       </c>
       <c r="B16" s="27">
         <v>4</v>
       </c>
-      <c r="C16" s="57" t="str">
+      <c r="C16" s="53" t="str">
         <v>Swap7Y</v>
       </c>
       <c r="E16" s="42" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="43"/>
-      <c r="H16" s="54">
-        <v>44354</v>
-      </c>
-      <c r="I16" s="55">
-        <v>0.75986365332090067</v>
+      <c r="H16" s="50">
+        <v>44792</v>
+      </c>
+      <c r="I16" s="51">
+        <v>0.76002998907080965</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="56" t="str">
-        <v>FUT5#0000</v>
+      <c r="A17" s="52" t="str">
+        <v>FUT5#0001</v>
       </c>
       <c r="B17" s="27">
         <v>4</v>
       </c>
-      <c r="C17" s="57" t="str">
+      <c r="C17" s="53" t="str">
         <v>Swap8Y</v>
       </c>
       <c r="E17" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="43"/>
-      <c r="H17" s="54">
-        <v>44718</v>
-      </c>
-      <c r="I17" s="55">
-        <v>0.73071619616284922</v>
+      <c r="H17" s="50">
+        <v>45159</v>
+      </c>
+      <c r="I17" s="51">
+        <v>0.73064194634023549</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="str">
-        <v>FUT6#0000</v>
+      <c r="A18" s="52" t="str">
+        <v>FUT6#0001</v>
       </c>
       <c r="B18" s="27">
         <v>4</v>
       </c>
-      <c r="C18" s="57" t="str">
+      <c r="C18" s="53" t="str">
         <v>Swap9Y</v>
       </c>
       <c r="E18" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="44"/>
-      <c r="H18" s="54">
-        <v>45082</v>
-      </c>
-      <c r="I18" s="55">
-        <v>0.70268680045582355</v>
+      <c r="H18" s="50">
+        <v>45523</v>
+      </c>
+      <c r="I18" s="51">
+        <v>0.70269048055803807</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="str">
-        <v>FUT7#0000</v>
+      <c r="A19" s="52" t="str">
+        <v>FUT7#0001</v>
       </c>
       <c r="B19" s="27">
         <v>4</v>
       </c>
-      <c r="C19" s="57" t="str">
+      <c r="C19" s="53" t="str">
         <v>Swap10Y</v>
       </c>
-      <c r="H19" s="54">
-        <v>45448</v>
-      </c>
-      <c r="I19" s="55">
-        <v>0.67566038505363268</v>
+      <c r="H19" s="50">
+        <v>45888</v>
+      </c>
+      <c r="I19" s="51">
+        <v>0.67566392361359295</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="56" t="str">
-        <v>FUT8#0000</v>
+      <c r="A20" s="52" t="str">
+        <v>FUT8#0001</v>
       </c>
       <c r="B20" s="27">
         <v>3</v>
       </c>
-      <c r="C20" s="57" t="str">
+      <c r="C20" s="53" t="str">
         <v>Swap15Y</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="59" t="str">
+      <c r="F20" s="55" t="str">
         <f>_xll.qlTermStructureCalendar($F$8)</f>
         <v>TARGET</v>
       </c>
-      <c r="H20" s="54">
-        <v>47274</v>
-      </c>
-      <c r="I20" s="55">
-        <v>0.55534124225914472</v>
+      <c r="H20" s="50">
+        <v>47714</v>
+      </c>
+      <c r="I20" s="51">
+        <v>0.55534645973849972</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="56" t="str">
-        <v>Swap3Y#0000</v>
+      <c r="A21" s="52" t="str">
+        <v>Swap3Y#0020</v>
       </c>
       <c r="B21" s="27">
         <v>3</v>
       </c>
-      <c r="C21" s="57" t="str">
+      <c r="C21" s="53" t="str">
         <v>Swap20Y</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="61" t="str">
+      <c r="F21" s="57" t="str">
         <f>_xll.qlTermStructureDayCounter($F$8)</f>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="H21" s="54">
-        <v>49100</v>
-      </c>
-      <c r="I21" s="55">
-        <v>0.45644999245485907</v>
+      <c r="H21" s="50">
+        <v>49541</v>
+      </c>
+      <c r="I21" s="51">
+        <v>0.45640744092995084</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="56" t="str">
-        <v>Swap4Y#0000</v>
+      <c r="A22" s="52" t="str">
+        <v>Swap4Y#0007</v>
       </c>
       <c r="B22" s="27">
         <v>3</v>
       </c>
-      <c r="C22" s="57" t="str">
+      <c r="C22" s="53" t="str">
         <v>Swap25Y</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="62">
+      <c r="F22" s="58">
         <f>_xll.qlTermStructureReferenceDate($F$8)</f>
-        <v>41795</v>
-      </c>
-      <c r="H22" s="54">
-        <v>50927</v>
-      </c>
-      <c r="I22" s="55">
-        <v>0.37513009998643787</v>
+        <v>42235</v>
+      </c>
+      <c r="H22" s="50">
+        <v>51368</v>
+      </c>
+      <c r="I22" s="51">
+        <v>0.37513374331359878</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="56" t="str">
-        <v>Swap5Y#0000</v>
+      <c r="A23" s="52" t="str">
+        <v>Swap5Y#0007</v>
       </c>
       <c r="B23" s="27">
         <v>3</v>
       </c>
-      <c r="C23" s="57" t="str">
+      <c r="C23" s="53" t="str">
         <v>Swap30Y</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="62">
+      <c r="F23" s="58">
         <f>_xll.qlTermStructureMaxDate($F$8)</f>
-        <v>52754</v>
-      </c>
-      <c r="H23" s="54">
-        <v>52754</v>
-      </c>
-      <c r="I23" s="55">
-        <v>0.30832967655125387</v>
+        <v>53195</v>
+      </c>
+      <c r="H23" s="50">
+        <v>53195</v>
+      </c>
+      <c r="I23" s="51">
+        <v>0.30829829892655919</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="56" t="str">
-        <v>Swap6Y#0000</v>
+      <c r="A24" s="52" t="str">
+        <v>Swap6Y#0007</v>
       </c>
       <c r="B24" s="27">
         <v>3</v>
       </c>
-      <c r="C24" s="57" t="e">
+      <c r="C24" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="60">
         <f>_xll.qlTermStructureSettlementDays($F$8)</f>
         <v>2</v>
       </c>
-      <c r="H24" s="54" t="e">
+      <c r="H24" s="50" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I24" s="55" t="e">
+      <c r="I24" s="51" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="56" t="str">
-        <v>Swap7Y#0000</v>
+      <c r="A25" s="52" t="str">
+        <v>Swap7Y#0007</v>
       </c>
       <c r="B25" s="27">
         <v>3</v>
       </c>
-      <c r="C25" s="57" t="e">
+      <c r="C25" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="66">
+      <c r="F25" s="62">
         <f>_xll.qlYieldTSDiscount($F$8,$F$22)</f>
         <v>1</v>
       </c>
-      <c r="H25" s="54" t="e">
+      <c r="H25" s="50" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I25" s="55" t="e">
+      <c r="I25" s="51" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="56" t="str">
-        <v>Swap8Y#0000</v>
+      <c r="A26" s="52" t="str">
+        <v>Swap8Y#0007</v>
       </c>
       <c r="B26" s="27">
         <v>3</v>
       </c>
-      <c r="C26" s="57" t="e">
+      <c r="C26" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="67">
+      <c r="F26" s="63">
         <f>_xll.qlYieldTSForwardRate($F$8,$F$22,$F$22+90,$F$21,"simple","annual")</f>
-        <v>4.0573822602143955E-2</v>
-      </c>
-      <c r="H26" s="54" t="e">
+        <v>4.0586688783342116E-2</v>
+      </c>
+      <c r="H26" s="50" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I26" s="55" t="e">
+      <c r="I26" s="51" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="str">
-        <v>Swap9Y#0000</v>
+      <c r="A27" s="52" t="str">
+        <v>Swap9Y#0007</v>
       </c>
       <c r="B27" s="27">
         <v>3</v>
       </c>
-      <c r="C27" s="57" t="e">
+      <c r="C27" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E27" s="68" t="s">
+      <c r="E27" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="69">
+      <c r="F27" s="65">
         <f>_xll.qlYieldTSZeroRate($F$8,$F$22,F21,"simple","annual")</f>
         <v>4.0418816846798933E-2</v>
       </c>
-      <c r="H27" s="54" t="e">
+      <c r="H27" s="50" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I27" s="55" t="e">
+      <c r="I27" s="51" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="56" t="str">
-        <v>Swap10Y#0000</v>
+      <c r="A28" s="52" t="str">
+        <v>Swap10Y#0007</v>
       </c>
       <c r="B28" s="27">
         <v>3</v>
       </c>
-      <c r="C28" s="57" t="e">
+      <c r="C28" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H28" s="54" t="e">
+      <c r="H28" s="50" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I28" s="55" t="e">
+      <c r="I28" s="51" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="56" t="str">
-        <v>Swap15Y#0000</v>
+      <c r="A29" s="52" t="str">
+        <v>Swap15Y#0007</v>
       </c>
       <c r="B29" s="27">
         <v>3</v>
       </c>
-      <c r="C29" s="57" t="e">
+      <c r="C29" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H29" s="54" t="e">
+      <c r="H29" s="50" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I29" s="55" t="e">
+      <c r="I29" s="51" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="56" t="str">
-        <v>Swap20Y#0000</v>
+      <c r="A30" s="52" t="str">
+        <v>Swap20Y#0007</v>
       </c>
       <c r="B30" s="27">
         <v>3</v>
       </c>
-      <c r="C30" s="57" t="e">
+      <c r="C30" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H30" s="54" t="e">
+      <c r="H30" s="50" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I30" s="55" t="e">
+      <c r="I30" s="51" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="56" t="str">
-        <v>Swap25Y#0000</v>
+      <c r="A31" s="52" t="str">
+        <v>Swap25Y#0007</v>
       </c>
       <c r="B31" s="27">
         <v>3</v>
       </c>
-      <c r="C31" s="57" t="e">
+      <c r="C31" s="53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H31" s="54" t="e">
+      <c r="H31" s="50" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I31" s="55" t="e">
+      <c r="I31" s="51" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="70" t="str">
-        <v>Swap30Y#0000</v>
+      <c r="A32" s="66" t="str">
+        <v>Swap30Y#0007</v>
       </c>
       <c r="B32" s="34">
         <v>3</v>
       </c>
-      <c r="C32" s="71" t="e">
+      <c r="C32" s="67" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H32" s="72" t="e">
+      <c r="H32" s="68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I32" s="73" t="e">
+      <c r="I32" s="69" t="e">
         <v>#N/A</v>
       </c>
     </row>
